--- a/figs_src/data_all_hpca_fpga.xlsx
+++ b/figs_src/data_all_hpca_fpga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10200" windowHeight="7365" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7920" windowHeight="8970" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="4" r:id="rId1"/>
@@ -15,17 +15,21 @@
     <sheet name="bc_graph" sheetId="9" r:id="rId6"/>
     <sheet name="umc" sheetId="10" r:id="rId7"/>
     <sheet name="umc_graph" sheetId="11" r:id="rId8"/>
-    <sheet name="imp_accuracy" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId12"/>
+    <sheet name="umc_graph_stacked" sheetId="13" r:id="rId9"/>
+    <sheet name="imp_accuracy" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
   <si>
     <t>DIFT</t>
   </si>
@@ -193,6 +197,27 @@
   <si>
     <t>70% Overhead</t>
   </si>
+  <si>
+    <t>1.1x</t>
+  </si>
+  <si>
+    <t>1.5x</t>
+  </si>
+  <si>
+    <t>1.01x</t>
+  </si>
+  <si>
+    <t>1.05x</t>
+  </si>
+  <si>
+    <t>1.3x</t>
+  </si>
+  <si>
+    <t>2.0x Overhead Target</t>
+  </si>
+  <si>
+    <t>1.7x</t>
+  </si>
 </sst>
 </file>
 
@@ -981,11 +1006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151192320"/>
-        <c:axId val="151193856"/>
+        <c:axId val="133448448"/>
+        <c:axId val="133449984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151192320"/>
+        <c:axId val="133448448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151193856"/>
+        <c:crossAx val="133449984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151193856"/>
+        <c:axId val="133449984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151192320"/>
+        <c:crossAx val="133448448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,11 +1669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151684992"/>
-        <c:axId val="151686528"/>
+        <c:axId val="133674880"/>
+        <c:axId val="133676416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151684992"/>
+        <c:axId val="133674880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151686528"/>
+        <c:crossAx val="133676416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,7 +1690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151686528"/>
+        <c:axId val="133676416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,14 +1722,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151684992"/>
+        <c:crossAx val="133674880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2288,11 +2312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151841792"/>
-        <c:axId val="151716608"/>
+        <c:axId val="142576640"/>
+        <c:axId val="142582528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151841792"/>
+        <c:axId val="142576640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151716608"/>
+        <c:crossAx val="142582528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2320,7 +2344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151716608"/>
+        <c:axId val="142582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2358,7 +2382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151841792"/>
+        <c:crossAx val="142576640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,11 +3056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153128320"/>
-        <c:axId val="153138304"/>
+        <c:axId val="142668928"/>
+        <c:axId val="142670464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153128320"/>
+        <c:axId val="142668928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153138304"/>
+        <c:crossAx val="142670464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3064,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153138304"/>
+        <c:axId val="142670464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3095,7 +3119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153128320"/>
+        <c:crossAx val="142668928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3146,10 +3170,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3158,28 +3182,35 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$3</c:f>
+              <c:f>umc!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LOAD</c:v>
+                  <c:v>1.01x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$2:$M$2</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -3208,58 +3239,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$3:$M$3</c:f>
+              <c:f>umc!$B$11:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.39740102488099999</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45960570007899998</c:v>
+                  <c:v>0.20069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37453852864100001</c:v>
+                  <c:v>0.20269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56473212498900005</c:v>
+                  <c:v>0.34539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36113374603499998</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41535975840900002</c:v>
+                  <c:v>0.70230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37630412517200001</c:v>
+                  <c:v>0.17849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38097182486499998</c:v>
+                  <c:v>0.1045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35014465301800002</c:v>
+                  <c:v>0.20949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.238616230554</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25086324169099999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35483787097800001</c:v>
+                  <c:v>0.23209897310227132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,21 +3289,28 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$4</c:f>
+              <c:f>umc!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STORE</c:v>
+                  <c:v>1.05x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$2:$M$2</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -3313,58 +3339,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$4:$M$4</c:f>
+              <c:f>umc!$B$12:$K$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.20739329704100001</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2683124288799995E-2</c:v>
+                  <c:v>0.20440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16760200967200001</c:v>
+                  <c:v>0.22520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9065312786299996E-2</c:v>
+                  <c:v>0.23559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15272015018099999</c:v>
+                  <c:v>0.24279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.148839138427</c:v>
+                  <c:v>0.13219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.171776421978</c:v>
+                  <c:v>0.2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17995704014</c:v>
+                  <c:v>0.22040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15483263923599999</c:v>
+                  <c:v>0.1933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15847287613300001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.137869624212</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.148571461214</c:v>
+                  <c:v>0.22900218240226491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,21 +3389,28 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$5</c:f>
+              <c:f>umc!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INTALU</c:v>
+                  <c:v>1.1x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$2:$M$2</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -3418,58 +3439,46 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$5:$M$5</c:f>
+              <c:f>umc!$B$13:$K$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.37147204499499997</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45632263372199999</c:v>
+                  <c:v>9.1799999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43947691022399998</c:v>
+                  <c:v>0.10989999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35433121949500002</c:v>
+                  <c:v>0.11150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46852030597700001</c:v>
+                  <c:v>0.11439999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43117061285500002</c:v>
+                  <c:v>0.11319999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44463944660499999</c:v>
+                  <c:v>0.10249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41230429152800002</c:v>
+                  <c:v>9.3599999999999961E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47531916823800002</c:v>
+                  <c:v>9.1700000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54895749314499998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56424378552800003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.46934756713300002</c:v>
+                  <c:v>0.10790563782282248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,21 +3489,28 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$6</c:f>
+              <c:f>umc!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INDCTRL</c:v>
+                  <c:v>1.3x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$2:$M$2</c:f>
+              <c:f>umc!$B$10:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -3523,58 +3539,346 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$6:$M$6</c:f>
+              <c:f>umc!$B$14:$K$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.37336330825E-2</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3885419105099999E-3</c:v>
+                  <c:v>0.12290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8382551463E-2</c:v>
+                  <c:v>0.26930000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8713427302700001E-3</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.76257978074E-2</c:v>
+                  <c:v>0.22770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6304903089100001E-3</c:v>
+                  <c:v>5.2300000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2800062448400002E-3</c:v>
+                  <c:v>0.23190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6766843467599999E-2</c:v>
+                  <c:v>0.19910000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.97035395073E-2</c:v>
+                  <c:v>0.24920000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3953400168000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.70233485688E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.72431006745E-2</c:v>
+                  <c:v>0.21916388121903652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.8500000000000032E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1499999999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19409999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15320638953932342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5199999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7700000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3699999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8132323271395485E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0x Overhead Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>geomean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9000000000000163E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9900331946705041E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,11 +3894,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="153051136"/>
-        <c:axId val="153052672"/>
+        <c:axId val="11385088"/>
+        <c:axId val="114561024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153051136"/>
+        <c:axId val="11385088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3907,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153052672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="114561024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3611,35 +3925,78 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153052672"/>
+        <c:axId val="114561024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153051136"/>
+        <c:crossAx val="11385088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9999902626677827E-2"/>
+          <c:y val="0.82651282496009193"/>
+          <c:w val="0.89999987016890381"/>
+          <c:h val="8.6077114486072429E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -3669,7 +4026,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$38</c:f>
+              <c:f>imp_accuracy!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3681,7 +4038,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$37:$M$37</c:f>
+              <c:f>imp_accuracy!$B$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3725,45 +4082,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$38:$M$38</c:f>
+              <c:f>imp_accuracy!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.39500914688700001</c:v>
+                  <c:v>0.39740102488099999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45386161017100002</c:v>
+                  <c:v>0.45960570007899998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.366696804135</c:v>
+                  <c:v>0.37453852864100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47283553351500002</c:v>
+                  <c:v>0.56473212498900005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33189064904100002</c:v>
+                  <c:v>0.36113374603499998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41687030899499999</c:v>
+                  <c:v>0.41535975840900002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36912214263499998</c:v>
+                  <c:v>0.37630412517200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32644724845599998</c:v>
+                  <c:v>0.38097182486499998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38940034316099997</c:v>
+                  <c:v>0.35014465301800002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20548674869799999</c:v>
+                  <c:v>0.238616230554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30484337795299998</c:v>
+                  <c:v>0.25086324169099999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35050753022699999</c:v>
+                  <c:v>0.35483787097800001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +4131,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$39</c:f>
+              <c:f>imp_accuracy!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3786,7 +4143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$37:$M$37</c:f>
+              <c:f>imp_accuracy!$B$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3830,45 +4187,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$39:$M$39</c:f>
+              <c:f>imp_accuracy!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.20171828276600001</c:v>
+                  <c:v>0.20739329704100001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10499694404899999</c:v>
+                  <c:v>8.2683124288799995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.182792600591</c:v>
+                  <c:v>0.16760200967200001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13528581819300001</c:v>
+                  <c:v>7.9065312786299996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.179752879916</c:v>
+                  <c:v>0.15272015018099999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16756481436699999</c:v>
+                  <c:v>0.148839138427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22790428580300001</c:v>
+                  <c:v>0.171776421978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17525210414199999</c:v>
+                  <c:v>0.17995704014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.172559027984</c:v>
+                  <c:v>0.15483263923599999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.206573036426</c:v>
+                  <c:v>0.15847287613300001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20370370334099999</c:v>
+                  <c:v>0.137869624212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13875611034499999</c:v>
+                  <c:v>0.148571461214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +4236,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$40</c:f>
+              <c:f>imp_accuracy!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3891,7 +4248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$37:$M$37</c:f>
+              <c:f>imp_accuracy!$B$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3935,45 +4292,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$40:$M$40</c:f>
+              <c:f>imp_accuracy!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.371283989481</c:v>
+                  <c:v>0.37147204499499997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43802082092200001</c:v>
+                  <c:v>0.45632263372199999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42512366985099997</c:v>
+                  <c:v>0.43947691022399998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.385988595198</c:v>
+                  <c:v>0.35433121949500002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46558614270300003</c:v>
+                  <c:v>0.46852030597700001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41048671524399999</c:v>
+                  <c:v>0.43117061285500002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39068901652299998</c:v>
+                  <c:v>0.44463944660499999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46352186134000001</c:v>
+                  <c:v>0.41230429152800002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42008716853200001</c:v>
+                  <c:v>0.47531916823800002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54779517525400001</c:v>
+                  <c:v>0.54895749314499998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45868938518399999</c:v>
+                  <c:v>0.56424378552800003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47657538193900001</c:v>
+                  <c:v>0.46934756713300002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,7 +4341,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$41</c:f>
+              <c:f>imp_accuracy!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3996,7 +4353,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$37:$M$37</c:f>
+              <c:f>imp_accuracy!$B$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4040,45 +4397,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$41:$M$41</c:f>
+              <c:f>imp_accuracy!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.1988580866699999E-2</c:v>
+                  <c:v>2.37336330825E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1206248582799998E-3</c:v>
+                  <c:v>1.3885419105099999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5386925421999999E-2</c:v>
+                  <c:v>1.8382551463E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8900530943000002E-3</c:v>
+                  <c:v>1.8713427302700001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.27703283402E-2</c:v>
+                  <c:v>1.76257978074E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0781613943999999E-3</c:v>
+                  <c:v>4.6304903089100001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2284555038399999E-2</c:v>
+                  <c:v>7.2800062448400002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4778786062600001E-2</c:v>
+                  <c:v>2.6766843467599999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7953460322899999E-2</c:v>
+                  <c:v>1.97035395073E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0145039622299997E-2</c:v>
+                  <c:v>5.3953400168000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.27635335215E-2</c:v>
+                  <c:v>4.70233485688E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4160977489099999E-2</c:v>
+                  <c:v>2.72431006745E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,11 +4451,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="153079168"/>
-        <c:axId val="153089152"/>
+        <c:axId val="142788096"/>
+        <c:axId val="142789632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153079168"/>
+        <c:axId val="142788096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153089152"/>
+        <c:crossAx val="142789632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153089152"/>
+        <c:axId val="142789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,7 +4483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153079168"/>
+        <c:crossAx val="142788096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4166,18 +4523,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$95</c:f>
+              <c:f>imp_accuracy!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10%</c:v>
+                  <c:v>LOAD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4185,7 +4542,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:f>imp_accuracy!$B$37:$M$37</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4229,45 +4586,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$95:$M$95</c:f>
+              <c:f>imp_accuracy!$B$38:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.2549477841999987E-3</c:v>
+                  <c:v>0.39500914688700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2313819760199999E-2</c:v>
+                  <c:v>0.45386161017100002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5190590918999991E-2</c:v>
+                  <c:v>0.366696804135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1896591474000033E-2</c:v>
+                  <c:v>0.47283553351500002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9243096993999962E-2</c:v>
+                  <c:v>0.33189064904100002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0683897611000035E-2</c:v>
+                  <c:v>0.41687030899499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6127863825000013E-2</c:v>
+                  <c:v>0.36912214263499998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4524576408999992E-2</c:v>
+                  <c:v>0.32644724845599998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5231999706000012E-2</c:v>
+                  <c:v>0.38940034316099997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8100160292999988E-2</c:v>
+                  <c:v>0.20548674869799999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10555440034400004</c:v>
+                  <c:v>0.30484337795299998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8153508690000113E-3</c:v>
+                  <c:v>0.35050753022699999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4278,11 +4635,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$96</c:f>
+              <c:f>imp_accuracy!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50%</c:v>
+                  <c:v>STORE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4290,7 +4647,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:f>imp_accuracy!$B$37:$M$37</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4334,45 +4691,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$96:$M$96</c:f>
+              <c:f>imp_accuracy!$B$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.4240534270000056E-3</c:v>
+                  <c:v>0.20171828276600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.241182611199998E-2</c:v>
+                  <c:v>0.10499694404899999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8212140570000339E-3</c:v>
+                  <c:v>0.182792600591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0480855533000006E-2</c:v>
+                  <c:v>0.13528581819300001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.644832967899996E-2</c:v>
+                  <c:v>0.179752879916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5623383993999993E-2</c:v>
+                  <c:v>0.16756481436699999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9946861024000005E-2</c:v>
+                  <c:v>0.22790428580300001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5080804021999996E-2</c:v>
+                  <c:v>0.17525210414199999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2137332436999964E-2</c:v>
+                  <c:v>0.172559027984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2904593696999995E-2</c:v>
+                  <c:v>0.206573036426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.483555287799998E-2</c:v>
+                  <c:v>0.20370370334099999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4953987544000014E-2</c:v>
+                  <c:v>0.13875611034499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4383,11 +4740,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$97</c:f>
+              <c:f>imp_accuracy!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100%</c:v>
+                  <c:v>INTALU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4395,7 +4752,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:f>imp_accuracy!$B$37:$M$37</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4439,45 +4796,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$97:$M$97</c:f>
+              <c:f>imp_accuracy!$B$40:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.0023993550000236E-3</c:v>
+                  <c:v>0.371283989481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1447313618999977E-2</c:v>
+                  <c:v>0.43802082092200001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8628387499999861E-3</c:v>
+                  <c:v>0.42512366985099997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2008657819999664E-3</c:v>
+                  <c:v>0.385988595198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3815239087999984E-2</c:v>
+                  <c:v>0.46558614270300003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4220452409000013E-2</c:v>
+                  <c:v>0.41048671524399999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8169197841999994E-2</c:v>
+                  <c:v>0.39068901652299998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3359130090000013E-2</c:v>
+                  <c:v>0.46352186134000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9470231633000008E-2</c:v>
+                  <c:v>0.42008716853200001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0043482329000004E-2</c:v>
+                  <c:v>0.54779517525400001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.749902250900004E-2</c:v>
+                  <c:v>0.45868938518399999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9902544350000113E-3</c:v>
+                  <c:v>0.47657538193900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,11 +4845,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>imp_accuracy!$A$98</c:f>
+              <c:f>imp_accuracy!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>300%</c:v>
+                  <c:v>INDCTRL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4500,7 +4857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:f>imp_accuracy!$B$37:$M$37</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4544,255 +4901,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_accuracy!$B$98:$M$98</c:f>
+              <c:f>imp_accuracy!$B$41:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.0489977309999841E-3</c:v>
+                  <c:v>3.1988580866699999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3124853739999885E-3</c:v>
+                  <c:v>3.1206248582799998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6393212030000361E-3</c:v>
+                  <c:v>2.5386925421999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8900530943000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2726156958999979E-2</c:v>
+                  <c:v>2.27703283402E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2584200558000034E-2</c:v>
+                  <c:v>5.0781613943999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8192556629999586E-3</c:v>
+                  <c:v>1.2284555038399999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3752864339999844E-3</c:v>
+                  <c:v>3.4778786062600001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4979313843999984E-2</c:v>
+                  <c:v>1.7953460322899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.0145039622299997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4601698588999984E-2</c:v>
+                  <c:v>3.27635335215E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3696796539999787E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>imp_accuracy!$A$99</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>perlbench</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>imp_accuracy!$B$99:$M$99</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.105915209999921E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>imp_accuracy!$A$100</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>700% Overhead</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>imp_accuracy!$B$94:$M$94</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>perlbench</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bzip2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gcc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gobmk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sjeng</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libquantum</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>h264ref</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>imp_accuracy!$B$100:$M$100</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.4160977489099999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,11 +4954,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153281280"/>
-        <c:axId val="153282816"/>
+        <c:overlap val="100"/>
+        <c:axId val="142816384"/>
+        <c:axId val="142817920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153281280"/>
+        <c:axId val="142816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +4968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153282816"/>
+        <c:crossAx val="142817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4828,7 +4976,720 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153282816"/>
+        <c:axId val="142817920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142816384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$95:$M$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.2549477841999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2313819760199999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5190590918999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1896591474000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9243096993999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0683897611000035E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6127863825000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4524576408999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5231999706000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8100160292999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10555440034400004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8153508690000113E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$96:$M$96</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.4240534270000056E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.241182611199998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8212140570000339E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0480855533000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.644832967899996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5623383993999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9946861024000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5080804021999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2137332436999964E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2904593696999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.483555287799998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4953987544000014E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$97:$M$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.0023993550000236E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1447313618999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8628387499999861E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2008657819999664E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3815239087999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4220452409000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8169197841999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3359130090000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9470231633000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0043482329000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.749902250900004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9902544350000113E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$98:$M$98</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.0489977309999841E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3124853739999885E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6393212030000361E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2726156958999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2584200558000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8192556629999586E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3752864339999844E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4979313843999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4601698588999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3696796539999787E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$99:$M$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.105915209999921E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>imp_accuracy!$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>700% Overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp_accuracy!$B$94:$M$94</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>xalan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp_accuracy!$B$100:$M$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="142846208"/>
+        <c:axId val="142876672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="142846208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142876672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142876672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4839,7 +5700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153281280"/>
+        <c:crossAx val="142846208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4888,7 +5749,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4900,10 +5761,22 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="243" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -4966,7 +5839,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6128349" cy="2024811"/>
+    <xdr:ext cx="6276731" cy="2173654"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4993,7 +5866,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6128349" cy="2024811"/>
+    <xdr:ext cx="6276731" cy="2173654"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5017,6 +5890,33 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="3080926" cy="2179383"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5115,6 +6015,308 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="full_mon"/>
+      <sheetName val="full_mon_graph"/>
+      <sheetName val="filter_mon"/>
+      <sheetName val="filter_mon_graph"/>
+      <sheetName val="bc"/>
+      <sheetName val="bc_graph"/>
+      <sheetName val="bc_graph_stacked"/>
+      <sheetName val="umc"/>
+      <sheetName val="umc_graph"/>
+      <sheetName val="umc_graph_stacked"/>
+      <sheetName val="insttype"/>
+      <sheetName val="insttype_graph"/>
+      <sheetName val="bc_policies"/>
+      <sheetName val="bc_policy_coverage_graph"/>
+      <sheetName val="bc_policy_exec_time_graph"/>
+      <sheetName val="umc_policies"/>
+      <sheetName val="umc_policy_coverage_graph"/>
+      <sheetName val="umc_policy_exec_time_graph"/>
+      <sheetName val="prob_1m_20140324"/>
+      <sheetName val="prob_1m_graph"/>
+      <sheetName val="multirun"/>
+      <sheetName val="multirun_graph"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>perlbench</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>bzip2</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>gcc</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>mcf</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>gobmk</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>hmmer</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>sjeng</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>libquantum</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>h264ref</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>geomean</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>1.1x</v>
+          </cell>
+          <cell r="B17">
+            <v>0.8861</v>
+          </cell>
+          <cell r="C17">
+            <v>0.5242</v>
+          </cell>
+          <cell r="D17">
+            <v>0.77649999999999997</v>
+          </cell>
+          <cell r="E17">
+            <v>0.94399999999999995</v>
+          </cell>
+          <cell r="F17">
+            <v>0.97319999999999995</v>
+          </cell>
+          <cell r="G17">
+            <v>0.81679999999999997</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>0.98839999999999995</v>
+          </cell>
+          <cell r="J17">
+            <v>0.77370000000000005</v>
+          </cell>
+          <cell r="K17">
+            <v>0.83944202561236447</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>1.5x</v>
+          </cell>
+          <cell r="B18">
+            <v>2.9699999999999949E-2</v>
+          </cell>
+          <cell r="C18">
+            <v>2.3700000000000054E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>2.0800000000000041E-2</v>
+          </cell>
+          <cell r="E18">
+            <v>2.6000000000000467E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>8.0000000000000071E-3</v>
+          </cell>
+          <cell r="G18">
+            <v>2.52E-2</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>1.5000000000000568E-3</v>
+          </cell>
+          <cell r="J18">
+            <v>2.3399999999999976E-2</v>
+          </cell>
+          <cell r="K18">
+            <v>1.6601794666692204E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>2.0x</v>
+          </cell>
+          <cell r="B19">
+            <v>3.2100000000000017E-2</v>
+          </cell>
+          <cell r="C19">
+            <v>3.1999999999999917E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>3.8900000000000046E-2</v>
+          </cell>
+          <cell r="E19">
+            <v>5.3400000000000003E-2</v>
+          </cell>
+          <cell r="F19">
+            <v>2.5000000000000577E-3</v>
+          </cell>
+          <cell r="G19">
+            <v>3.7600000000000078E-2</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>1.8000000000000238E-3</v>
+          </cell>
+          <cell r="J19">
+            <v>2.1299999999999986E-2</v>
+          </cell>
+          <cell r="K19">
+            <v>2.5889017703370598E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>4.0x</v>
+          </cell>
+          <cell r="B20">
+            <v>5.2100000000000035E-2</v>
+          </cell>
+          <cell r="C20">
+            <v>9.7700000000000009E-2</v>
+          </cell>
+          <cell r="D20">
+            <v>0.11399999999999999</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>7.0000000000000062E-3</v>
+          </cell>
+          <cell r="G20">
+            <v>0.10959999999999992</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>7.3999999999999622E-3</v>
+          </cell>
+          <cell r="J20">
+            <v>7.2199999999999931E-2</v>
+          </cell>
+          <cell r="K20">
+            <v>5.5942572025022841E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>6.0x</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0.11870000000000003</v>
+          </cell>
+          <cell r="D21">
+            <v>4.9799999999999955E-2</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>4.5999999999999375E-3</v>
+          </cell>
+          <cell r="G21">
+            <v>1.0800000000000032E-2</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>9.000000000000119E-4</v>
+          </cell>
+          <cell r="J21">
+            <v>0.10940000000000005</v>
+          </cell>
+          <cell r="K21">
+            <v>3.6623126171411502E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>8.0x Overhead Target</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0.14400000000000002</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>3.7000000000000366E-3</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>1.8574808229799067E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6164,10 +7366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6471,6 +7673,354 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B2</f>
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:K11" si="1">C2</f>
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1045</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.23209897310227132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6">
+        <f>B3-B2</f>
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:K12" si="2">C3-C2</f>
+        <v>0.20440000000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23559999999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13219999999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2016</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.22040000000000004</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1933</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.22900218240226491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" ref="B13:K13" si="3">B4-B3</f>
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="3"/>
+        <v>9.1799999999999993E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10989999999999994</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11150000000000004</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11439999999999995</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11319999999999997</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10249999999999998</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>9.3599999999999961E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10790563782282248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" ref="B14:K14" si="4">B5-B4</f>
+        <v>0.29769999999999996</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.12290000000000001</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.26930000000000009</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="4"/>
+        <v>5.2300000000000013E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.23190000000000005</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.19910000000000005</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.24920000000000003</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.21916388121903652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" ref="B15:K15" si="5">B6-B5</f>
+        <v>9.8500000000000032E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.18730000000000002</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.17769999999999997</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="5"/>
+        <v>3.1499999999999972E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.18110000000000004</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.19409999999999994</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.22260000000000002</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.15320638953932342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:K17" si="6">B7-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="6"/>
+        <v>0.19289999999999996</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5199999999999991E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="6"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7700000000000058E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="6"/>
+        <v>3.3699999999999952E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="6"/>
+        <v>3.8132323271395485E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000163E-3</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16059999999999997</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9900331946705041E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figs_src/data_all_hpca_fpga.xlsx
+++ b/figs_src/data_all_hpca_fpga.xlsx
@@ -21,9 +21,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -213,10 +210,10 @@
     <t>1.3x</t>
   </si>
   <si>
-    <t>2.0x Overhead Target</t>
+    <t>1.7x</t>
   </si>
   <si>
-    <t>1.7x</t>
+    <t>2.0x</t>
   </si>
 </sst>
 </file>
@@ -1006,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133448448"/>
-        <c:axId val="133449984"/>
+        <c:axId val="141431936"/>
+        <c:axId val="141433472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133448448"/>
+        <c:axId val="141431936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133449984"/>
+        <c:crossAx val="141433472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133449984"/>
+        <c:axId val="141433472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133448448"/>
+        <c:crossAx val="141431936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,11 +1666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133674880"/>
-        <c:axId val="133676416"/>
+        <c:axId val="151623936"/>
+        <c:axId val="151633920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133674880"/>
+        <c:axId val="151623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133676416"/>
+        <c:crossAx val="151633920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133676416"/>
+        <c:axId val="151633920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133674880"/>
+        <c:crossAx val="151623936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2312,11 +2309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142576640"/>
-        <c:axId val="142582528"/>
+        <c:axId val="151780736"/>
+        <c:axId val="151790720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142576640"/>
+        <c:axId val="151780736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142582528"/>
+        <c:crossAx val="151790720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +2341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142582528"/>
+        <c:axId val="151790720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2382,7 +2379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142576640"/>
+        <c:crossAx val="151780736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3056,11 +3053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142668928"/>
-        <c:axId val="142670464"/>
+        <c:axId val="152999424"/>
+        <c:axId val="153000960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142668928"/>
+        <c:axId val="152999424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142670464"/>
+        <c:crossAx val="153000960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142670464"/>
+        <c:axId val="153000960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3112,14 +3109,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142668928"/>
+        <c:crossAx val="152999424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3793,7 +3789,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0x Overhead Target</c:v>
+                  <c:v>2.0x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3894,11 +3890,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="11385088"/>
-        <c:axId val="114561024"/>
+        <c:axId val="153129344"/>
+        <c:axId val="153130880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11385088"/>
+        <c:axId val="153129344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114561024"/>
+        <c:crossAx val="153130880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3925,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114561024"/>
+        <c:axId val="153130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3956,7 +3952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11385088"/>
+        <c:crossAx val="153129344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3967,10 +3963,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9999902626677827E-2"/>
-          <c:y val="0.82651282496009193"/>
-          <c:w val="0.89999987016890381"/>
-          <c:h val="8.6077114486072429E-2"/>
+          <c:x val="7.8747746067275998E-2"/>
+          <c:y val="0.81336881396558758"/>
+          <c:w val="0.84250416623108282"/>
+          <c:h val="9.2598625594428927E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4451,11 +4447,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="142788096"/>
-        <c:axId val="142789632"/>
+        <c:axId val="153277184"/>
+        <c:axId val="153278720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142788096"/>
+        <c:axId val="153277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142789632"/>
+        <c:crossAx val="153278720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4472,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142789632"/>
+        <c:axId val="153278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4483,7 +4479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142788096"/>
+        <c:crossAx val="153277184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4955,11 +4951,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="142816384"/>
-        <c:axId val="142817920"/>
+        <c:axId val="153207168"/>
+        <c:axId val="153208704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142816384"/>
+        <c:axId val="153207168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4968,7 +4964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142817920"/>
+        <c:crossAx val="153208704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4976,7 +4972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142817920"/>
+        <c:axId val="153208704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +4983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142816384"/>
+        <c:crossAx val="153207168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5668,11 +5664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142846208"/>
-        <c:axId val="142876672"/>
+        <c:axId val="153306240"/>
+        <c:axId val="153307776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142846208"/>
+        <c:axId val="153306240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,7 +5677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142876672"/>
+        <c:crossAx val="153307776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5689,7 +5685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142876672"/>
+        <c:axId val="153307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5700,7 +5696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142846208"/>
+        <c:crossAx val="153306240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5761,7 +5757,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5773,7 +5769,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="243" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5866,7 +5862,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6276731" cy="2173654"/>
+    <xdr:ext cx="6125766" cy="2024063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5893,7 +5889,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3080926" cy="2179383"/>
+    <xdr:ext cx="2927106" cy="2025894"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6015,308 +6011,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="full_mon"/>
-      <sheetName val="full_mon_graph"/>
-      <sheetName val="filter_mon"/>
-      <sheetName val="filter_mon_graph"/>
-      <sheetName val="bc"/>
-      <sheetName val="bc_graph"/>
-      <sheetName val="bc_graph_stacked"/>
-      <sheetName val="umc"/>
-      <sheetName val="umc_graph"/>
-      <sheetName val="umc_graph_stacked"/>
-      <sheetName val="insttype"/>
-      <sheetName val="insttype_graph"/>
-      <sheetName val="bc_policies"/>
-      <sheetName val="bc_policy_coverage_graph"/>
-      <sheetName val="bc_policy_exec_time_graph"/>
-      <sheetName val="umc_policies"/>
-      <sheetName val="umc_policy_coverage_graph"/>
-      <sheetName val="umc_policy_exec_time_graph"/>
-      <sheetName val="prob_1m_20140324"/>
-      <sheetName val="prob_1m_graph"/>
-      <sheetName val="multirun"/>
-      <sheetName val="multirun_graph"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>perlbench</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>bzip2</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>gcc</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>mcf</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>gobmk</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>hmmer</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>sjeng</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>libquantum</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>h264ref</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>geomean</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>1.1x</v>
-          </cell>
-          <cell r="B17">
-            <v>0.8861</v>
-          </cell>
-          <cell r="C17">
-            <v>0.5242</v>
-          </cell>
-          <cell r="D17">
-            <v>0.77649999999999997</v>
-          </cell>
-          <cell r="E17">
-            <v>0.94399999999999995</v>
-          </cell>
-          <cell r="F17">
-            <v>0.97319999999999995</v>
-          </cell>
-          <cell r="G17">
-            <v>0.81679999999999997</v>
-          </cell>
-          <cell r="H17">
-            <v>1</v>
-          </cell>
-          <cell r="I17">
-            <v>0.98839999999999995</v>
-          </cell>
-          <cell r="J17">
-            <v>0.77370000000000005</v>
-          </cell>
-          <cell r="K17">
-            <v>0.83944202561236447</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>1.5x</v>
-          </cell>
-          <cell r="B18">
-            <v>2.9699999999999949E-2</v>
-          </cell>
-          <cell r="C18">
-            <v>2.3700000000000054E-2</v>
-          </cell>
-          <cell r="D18">
-            <v>2.0800000000000041E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>2.6000000000000467E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>8.0000000000000071E-3</v>
-          </cell>
-          <cell r="G18">
-            <v>2.52E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>1.5000000000000568E-3</v>
-          </cell>
-          <cell r="J18">
-            <v>2.3399999999999976E-2</v>
-          </cell>
-          <cell r="K18">
-            <v>1.6601794666692204E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>2.0x</v>
-          </cell>
-          <cell r="B19">
-            <v>3.2100000000000017E-2</v>
-          </cell>
-          <cell r="C19">
-            <v>3.1999999999999917E-2</v>
-          </cell>
-          <cell r="D19">
-            <v>3.8900000000000046E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>5.3400000000000003E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>2.5000000000000577E-3</v>
-          </cell>
-          <cell r="G19">
-            <v>3.7600000000000078E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>1.8000000000000238E-3</v>
-          </cell>
-          <cell r="J19">
-            <v>2.1299999999999986E-2</v>
-          </cell>
-          <cell r="K19">
-            <v>2.5889017703370598E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>4.0x</v>
-          </cell>
-          <cell r="B20">
-            <v>5.2100000000000035E-2</v>
-          </cell>
-          <cell r="C20">
-            <v>9.7700000000000009E-2</v>
-          </cell>
-          <cell r="D20">
-            <v>0.11399999999999999</v>
-          </cell>
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-          <cell r="F20">
-            <v>7.0000000000000062E-3</v>
-          </cell>
-          <cell r="G20">
-            <v>0.10959999999999992</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>7.3999999999999622E-3</v>
-          </cell>
-          <cell r="J20">
-            <v>7.2199999999999931E-2</v>
-          </cell>
-          <cell r="K20">
-            <v>5.5942572025022841E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>6.0x</v>
-          </cell>
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-          <cell r="C21">
-            <v>0.11870000000000003</v>
-          </cell>
-          <cell r="D21">
-            <v>4.9799999999999955E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="F21">
-            <v>4.5999999999999375E-3</v>
-          </cell>
-          <cell r="G21">
-            <v>1.0800000000000032E-2</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>9.000000000000119E-4</v>
-          </cell>
-          <cell r="J21">
-            <v>0.10940000000000005</v>
-          </cell>
-          <cell r="K21">
-            <v>3.6623126171411502E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>8.0x Overhead Target</v>
-          </cell>
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0.14400000000000002</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>3.7000000000000366E-3</v>
-          </cell>
-          <cell r="G22">
-            <v>0</v>
-          </cell>
-          <cell r="H22">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>0</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-          <cell r="K22">
-            <v>1.8574808229799067E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7369,7 +7063,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7934,7 +7628,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16:K17" si="6">B7-B6</f>
@@ -7979,7 +7673,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="6"/>
